--- a/aapd/TAG.xlsx
+++ b/aapd/TAG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\哈哈\PycharmProjects\datasets\aapd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{895A2E41-2146-4145-9313-343F46A5B22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43600147-24CC-4876-AB9F-5B67D2DB7AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2C7D88B-E368-476A-B686-38A53ADC1B29}"/>
+    <workbookView xWindow="-21720" yWindow="2475" windowWidth="21840" windowHeight="13140" xr2:uid="{C2C7D88B-E368-476A-B686-38A53ADC1B29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -787,7 +787,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
